--- a/HydroDynOutListParameters.xlsx
+++ b/HydroDynOutListParameters.xlsx
@@ -4200,10 +4200,10 @@
   <dimension ref="A1:I939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D853" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="F939" sqref="F859:F939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
